--- a/data/naba/SpeciesTraitsLR_1.xlsx
+++ b/data/naba/SpeciesTraitsLR_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eal109\Documents\Git\bfly_spat.temp\data\naba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDA69BAA-3D82-492E-AAC4-6E0C052DA9C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{5C472278-2010-4BB9-BD10-08C32E8F8D39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -3415,7 +3415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3471,6 +3471,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3646,10 +3652,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3700,8 +3707,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3718,7 +3727,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Elise A. Larsen" refreshedDate="44573.507812615739" refreshedVersion="6" recordCount="368" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Elise A. Larsen" refreshedDate="44644.475153009262" refreshedVersion="6" recordCount="368" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:K916" sheet="iNat species"/>
   </cacheSource>
@@ -7858,7 +7867,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Pivot Table 1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Pivot Table 1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" compact="0" compactData="0">
   <location ref="A1:X24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField name="species (iNat)" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -8280,10 +8289,10 @@
   <dimension ref="A1:AG916"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F354" sqref="F1:K354"/>
+      <selection pane="bottomRight" activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14526,7 +14535,7 @@
       <c r="K187" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L187" s="10" t="s">
+      <c r="L187" s="40" t="s">
         <v>353</v>
       </c>
       <c r="M187" s="3" t="s">
